--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3201.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3201.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9346233433623252</v>
+        <v>1.5206698179245</v>
       </c>
       <c r="B1">
-        <v>1.694061546345648</v>
+        <v>2.175567388534546</v>
       </c>
       <c r="C1">
-        <v>5.942880681838004</v>
+        <v>2.592531204223633</v>
       </c>
       <c r="D1">
-        <v>4.294946171099203</v>
+        <v>3.100714683532715</v>
       </c>
       <c r="E1">
-        <v>1.747561391367548</v>
+        <v>2.119130849838257</v>
       </c>
     </row>
   </sheetData>
